--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H2">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q2">
-        <v>0.05073595770000001</v>
+        <v>1.045584403973778</v>
       </c>
       <c r="R2">
-        <v>0.4566236193</v>
+        <v>9.410259635764001</v>
       </c>
       <c r="S2">
-        <v>7.827723451462456E-06</v>
+        <v>0.000100571853189365</v>
       </c>
       <c r="T2">
-        <v>7.827723451462458E-06</v>
+        <v>0.000100571853189365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H3">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N3">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q3">
-        <v>126.2279892009</v>
+        <v>108.7502237005629</v>
       </c>
       <c r="R3">
-        <v>1136.0519028081</v>
+        <v>978.7520133050662</v>
       </c>
       <c r="S3">
-        <v>0.01947490174801282</v>
+        <v>0.0104603812860601</v>
       </c>
       <c r="T3">
-        <v>0.01947490174801282</v>
+        <v>0.0104603812860601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H4">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N4">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q4">
-        <v>169.84970030025</v>
+        <v>0.02230707272444445</v>
       </c>
       <c r="R4">
-        <v>1528.64730270225</v>
+        <v>0.20076365452</v>
       </c>
       <c r="S4">
-        <v>0.02620501400851918</v>
+        <v>2.145655228407155E-06</v>
       </c>
       <c r="T4">
-        <v>0.02620501400851919</v>
+        <v>2.145655228407155E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H5">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N5">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="O5">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P5">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q5">
-        <v>90.016435195875</v>
+        <v>108.6673954189922</v>
       </c>
       <c r="R5">
-        <v>810.1479167628751</v>
+        <v>978.00655877093</v>
       </c>
       <c r="S5">
-        <v>0.01388805479865419</v>
+        <v>0.01045241426422772</v>
       </c>
       <c r="T5">
-        <v>0.0138880547986542</v>
+        <v>0.01045241426422772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2760703333333334</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H6">
-        <v>0.828211</v>
+        <v>1.488682</v>
       </c>
       <c r="I6">
-        <v>0.01821536726680835</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J6">
-        <v>0.01821536726680835</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05619066666666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N6">
-        <v>0.168572</v>
+        <v>385.837593</v>
       </c>
       <c r="O6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q6">
-        <v>0.01551257607688889</v>
+        <v>63.82105329138068</v>
       </c>
       <c r="R6">
-        <v>0.139613184692</v>
+        <v>574.3894796224261</v>
       </c>
       <c r="S6">
-        <v>2.393335241007161E-06</v>
+        <v>0.006138769455260876</v>
       </c>
       <c r="T6">
-        <v>2.393335241007162E-06</v>
+        <v>0.006138769455260876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>0.828211</v>
       </c>
       <c r="I7">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J7">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>139.7989746666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N7">
-        <v>419.396924</v>
+        <v>6.321202</v>
       </c>
       <c r="O7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q7">
-        <v>38.59434953588489</v>
+        <v>0.5816987810691112</v>
       </c>
       <c r="R7">
-        <v>347.349145822964</v>
+        <v>5.235289029622001</v>
       </c>
       <c r="S7">
-        <v>0.005954473092679697</v>
+        <v>5.595198645635345E-05</v>
       </c>
       <c r="T7">
-        <v>0.005954473092679698</v>
+        <v>5.595198645635344E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>0.828211</v>
       </c>
       <c r="I8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.11053</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N8">
-        <v>564.33159</v>
+        <v>657.462113</v>
       </c>
       <c r="O8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q8">
-        <v>51.93173672061001</v>
+        <v>60.50192822998257</v>
       </c>
       <c r="R8">
-        <v>467.38563048549</v>
+        <v>544.517354069843</v>
       </c>
       <c r="S8">
-        <v>0.008012212478707047</v>
+        <v>0.00581951205516633</v>
       </c>
       <c r="T8">
-        <v>0.008012212478707049</v>
+        <v>0.005819512055166331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>0.828211</v>
       </c>
       <c r="I9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>99.694255</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N9">
-        <v>299.082765</v>
+        <v>0.13486</v>
       </c>
       <c r="O9">
-        <v>0.2331157147689297</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P9">
-        <v>0.2331157147689298</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q9">
-        <v>27.52262620926833</v>
+        <v>0.01241028171777778</v>
       </c>
       <c r="R9">
-        <v>247.703635883415</v>
+        <v>0.11169253546</v>
       </c>
       <c r="S9">
-        <v>0.004246288360180594</v>
+        <v>1.19371045150967E-06</v>
       </c>
       <c r="T9">
-        <v>0.004246288360180595</v>
+        <v>1.19371045150967E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4985573333333334</v>
+        <v>0.2760703333333334</v>
       </c>
       <c r="H10">
-        <v>1.495672</v>
+        <v>0.828211</v>
       </c>
       <c r="I10">
-        <v>0.03289525832267595</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J10">
-        <v>0.03289525832267596</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05619066666666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N10">
-        <v>0.168572</v>
+        <v>656.961365</v>
       </c>
       <c r="O10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q10">
-        <v>0.02801426893155556</v>
+        <v>60.4558476742239</v>
       </c>
       <c r="R10">
-        <v>0.252128420384</v>
+        <v>544.1026290680151</v>
       </c>
       <c r="S10">
-        <v>4.322140742621944E-06</v>
+        <v>0.005815079694783915</v>
       </c>
       <c r="T10">
-        <v>4.322140742621944E-06</v>
+        <v>0.005815079694783914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4985573333333334</v>
+        <v>0.2760703333333334</v>
       </c>
       <c r="H11">
-        <v>1.495672</v>
+        <v>0.828211</v>
       </c>
       <c r="I11">
-        <v>0.03289525832267595</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J11">
-        <v>0.03289525832267596</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7989746666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N11">
-        <v>419.396924</v>
+        <v>385.837593</v>
       </c>
       <c r="O11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q11">
-        <v>69.69780401254756</v>
+        <v>35.50610430401368</v>
       </c>
       <c r="R11">
-        <v>627.280236112928</v>
+        <v>319.554938736123</v>
       </c>
       <c r="S11">
-        <v>0.01075322433470991</v>
+        <v>0.003415233333452723</v>
       </c>
       <c r="T11">
-        <v>0.01075322433470991</v>
+        <v>0.003415233333452722</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H12">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I12">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J12">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>188.11053</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N12">
-        <v>564.33159</v>
+        <v>6.321202</v>
       </c>
       <c r="O12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q12">
-        <v>93.78388420872001</v>
+        <v>2.111228088960889</v>
       </c>
       <c r="R12">
-        <v>844.0549578784801</v>
+        <v>19.001052800648</v>
       </c>
       <c r="S12">
-        <v>0.01446931019082423</v>
+        <v>0.0002030731527796996</v>
       </c>
       <c r="T12">
-        <v>0.01446931019082423</v>
+        <v>0.0002030731527796996</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H13">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I13">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J13">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,43 +1243,43 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.694255</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N13">
-        <v>299.082765</v>
+        <v>657.462113</v>
       </c>
       <c r="O13">
-        <v>0.2331157147689297</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P13">
-        <v>0.2331157147689298</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q13">
-        <v>49.70330192145333</v>
+        <v>219.5867938397125</v>
       </c>
       <c r="R13">
-        <v>447.32971729308</v>
+        <v>1976.281144557412</v>
       </c>
       <c r="S13">
-        <v>0.007668401656399189</v>
+        <v>0.0211214424282143</v>
       </c>
       <c r="T13">
-        <v>0.007668401656399191</v>
+        <v>0.0211214424282143</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.17474</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H14">
-        <v>0.52422</v>
+        <v>3.005924</v>
       </c>
       <c r="I14">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J14">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05619066666666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N14">
-        <v>0.168572</v>
+        <v>0.13486</v>
       </c>
       <c r="O14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q14">
-        <v>0.009818757093333333</v>
+        <v>0.04504210118222222</v>
       </c>
       <c r="R14">
-        <v>0.08836881384</v>
+        <v>0.40537891064</v>
       </c>
       <c r="S14">
-        <v>1.514872659311183E-06</v>
+        <v>4.33247432748871E-06</v>
       </c>
       <c r="T14">
-        <v>1.514872659311183E-06</v>
+        <v>4.332474327488709E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.17474</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H15">
-        <v>0.52422</v>
+        <v>3.005924</v>
       </c>
       <c r="I15">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J15">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>139.7989746666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N15">
-        <v>419.396924</v>
+        <v>656.961365</v>
       </c>
       <c r="O15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q15">
-        <v>24.42847283325334</v>
+        <v>219.4195482362511</v>
       </c>
       <c r="R15">
-        <v>219.85625549928</v>
+        <v>1974.77593412626</v>
       </c>
       <c r="S15">
-        <v>0.003768911406205123</v>
+        <v>0.02110535553918463</v>
       </c>
       <c r="T15">
-        <v>0.003768911406205124</v>
+        <v>0.02110535553918463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.17474</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H16">
-        <v>0.52422</v>
+        <v>3.005924</v>
       </c>
       <c r="I16">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J16">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>188.11053</v>
+        <v>128.612531</v>
       </c>
       <c r="N16">
-        <v>564.33159</v>
+        <v>385.837593</v>
       </c>
       <c r="O16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q16">
-        <v>32.8704340122</v>
+        <v>128.8664978778814</v>
       </c>
       <c r="R16">
-        <v>295.8339061098</v>
+        <v>1159.798480900932</v>
       </c>
       <c r="S16">
-        <v>0.005071367110057471</v>
+        <v>0.01239530970081965</v>
       </c>
       <c r="T16">
-        <v>0.005071367110057472</v>
+        <v>0.01239530970081965</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H17">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I17">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J17">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>99.694255</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N17">
-        <v>299.082765</v>
+        <v>6.321202</v>
       </c>
       <c r="O17">
-        <v>0.2331157147689297</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P17">
-        <v>0.2331157147689298</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q17">
-        <v>17.4205741187</v>
+        <v>0.09449986283266668</v>
       </c>
       <c r="R17">
-        <v>156.7851670683</v>
+        <v>0.8504987654940001</v>
       </c>
       <c r="S17">
-        <v>0.002687707944200054</v>
+        <v>9.089678743391463E-06</v>
       </c>
       <c r="T17">
-        <v>0.002687707944200055</v>
+        <v>9.089678743391463E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>12.66757666666667</v>
+        <v>0.044849</v>
       </c>
       <c r="H18">
-        <v>38.00273</v>
+        <v>0.134547</v>
       </c>
       <c r="I18">
-        <v>0.8358180271589674</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J18">
-        <v>0.8358180271589675</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05619066666666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N18">
-        <v>0.168572</v>
+        <v>657.462113</v>
       </c>
       <c r="O18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q18">
-        <v>0.7117995779511112</v>
+        <v>9.828839435312334</v>
       </c>
       <c r="R18">
-        <v>6.40619620156</v>
+        <v>88.459554917811</v>
       </c>
       <c r="S18">
-        <v>0.0001098189627564474</v>
+        <v>0.0009454087044080123</v>
       </c>
       <c r="T18">
-        <v>0.0001098189627564474</v>
+        <v>0.0009454087044080124</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>12.66757666666667</v>
+        <v>0.044849</v>
       </c>
       <c r="H19">
-        <v>38.00273</v>
+        <v>0.134547</v>
       </c>
       <c r="I19">
-        <v>0.8358180271589674</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J19">
-        <v>0.8358180271589675</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>139.7989746666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N19">
-        <v>419.396924</v>
+        <v>0.13486</v>
       </c>
       <c r="O19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q19">
-        <v>1770.914229511391</v>
+        <v>0.002016112046666667</v>
       </c>
       <c r="R19">
-        <v>15938.22806560252</v>
+        <v>0.01814500842</v>
       </c>
       <c r="S19">
-        <v>0.2732229265650559</v>
+        <v>1.939242054491808E-07</v>
       </c>
       <c r="T19">
-        <v>0.2732229265650559</v>
+        <v>1.939242054491808E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>12.66757666666667</v>
+        <v>0.044849</v>
       </c>
       <c r="H20">
-        <v>38.00273</v>
+        <v>0.134547</v>
       </c>
       <c r="I20">
-        <v>0.8358180271589674</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J20">
-        <v>0.8358180271589675</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.11053</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N20">
-        <v>564.33159</v>
+        <v>656.961365</v>
       </c>
       <c r="O20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q20">
-        <v>2382.9045605823</v>
+        <v>9.821353419628334</v>
       </c>
       <c r="R20">
-        <v>21446.1410452407</v>
+        <v>88.392180776655</v>
       </c>
       <c r="S20">
-        <v>0.3676429648132356</v>
+        <v>0.0009446886453984448</v>
       </c>
       <c r="T20">
-        <v>0.3676429648132356</v>
+        <v>0.0009446886453984448</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>12.66757666666667</v>
+        <v>0.044849</v>
       </c>
       <c r="H21">
-        <v>38.00273</v>
+        <v>0.134547</v>
       </c>
       <c r="I21">
-        <v>0.8358180271589674</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J21">
-        <v>0.8358180271589675</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>99.694255</v>
+        <v>128.612531</v>
       </c>
       <c r="N21">
-        <v>299.082765</v>
+        <v>385.837593</v>
       </c>
       <c r="O21">
-        <v>0.2331157147689297</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P21">
-        <v>0.2331157147689298</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q21">
-        <v>1262.884618438717</v>
+        <v>5.768143402819001</v>
       </c>
       <c r="R21">
-        <v>11365.96156594845</v>
+        <v>51.913290625371</v>
       </c>
       <c r="S21">
-        <v>0.1948423168179194</v>
+        <v>0.0005548216569401559</v>
       </c>
       <c r="T21">
-        <v>0.1948423168179194</v>
+        <v>0.0005548216569401559</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6360333333333333</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H22">
-        <v>1.9081</v>
+        <v>48.301222</v>
       </c>
       <c r="I22">
-        <v>0.04196604763978866</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J22">
-        <v>0.04196604763978867</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N22">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q22">
-        <v>0.03573913702222222</v>
+        <v>33.92464234542712</v>
       </c>
       <c r="R22">
-        <v>0.3216522332</v>
+        <v>305.321781108844</v>
       </c>
       <c r="S22">
-        <v>5.513960782174789E-06</v>
+        <v>0.003263116910025731</v>
       </c>
       <c r="T22">
-        <v>5.51396078217479E-06</v>
+        <v>0.003263116910025731</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6360333333333333</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H23">
-        <v>1.9081</v>
+        <v>48.301222</v>
       </c>
       <c r="I23">
-        <v>0.04196604763978866</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J23">
-        <v>0.04196604763978867</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N23">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q23">
-        <v>88.91680785382223</v>
+        <v>3528.46927517801</v>
       </c>
       <c r="R23">
-        <v>800.2512706844001</v>
+        <v>31756.22347660208</v>
       </c>
       <c r="S23">
-        <v>0.01371840039330814</v>
+        <v>0.3393936372594244</v>
       </c>
       <c r="T23">
-        <v>0.01371840039330815</v>
+        <v>0.3393936372594245</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6360333333333333</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H24">
-        <v>1.9081</v>
+        <v>48.301222</v>
       </c>
       <c r="I24">
-        <v>0.04196604763978866</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J24">
-        <v>0.04196604763978867</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N24">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q24">
-        <v>119.644567431</v>
+        <v>0.7237669776577779</v>
       </c>
       <c r="R24">
-        <v>1076.801106879</v>
+        <v>6.513902798919999</v>
       </c>
       <c r="S24">
-        <v>0.01845918809412205</v>
+        <v>6.961713080614575E-05</v>
       </c>
       <c r="T24">
-        <v>0.01845918809412205</v>
+        <v>6.961713080614575E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.10040733333333</v>
+      </c>
+      <c r="H25">
+        <v>48.301222</v>
+      </c>
+      <c r="I25">
+        <v>0.8810377420817962</v>
+      </c>
+      <c r="J25">
+        <v>0.8810377420817962</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N25">
+        <v>656.961365</v>
+      </c>
+      <c r="O25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q25">
+        <v>3525.781859587559</v>
+      </c>
+      <c r="R25">
+        <v>31732.03673628803</v>
+      </c>
+      <c r="S25">
+        <v>0.3391351422348292</v>
+      </c>
+      <c r="T25">
+        <v>0.3391351422348292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.10040733333333</v>
+      </c>
+      <c r="H26">
+        <v>48.301222</v>
+      </c>
+      <c r="I26">
+        <v>0.8810377420817962</v>
+      </c>
+      <c r="J26">
+        <v>0.8810377420817962</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>128.612531</v>
+      </c>
+      <c r="N26">
+        <v>385.837593</v>
+      </c>
+      <c r="O26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q26">
+        <v>2070.714137270961</v>
+      </c>
+      <c r="R26">
+        <v>18636.42723543864</v>
+      </c>
+      <c r="S26">
+        <v>0.1991762285467109</v>
+      </c>
+      <c r="T26">
+        <v>0.1991762285467109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6360333333333333</v>
-      </c>
-      <c r="H25">
-        <v>1.9081</v>
-      </c>
-      <c r="I25">
-        <v>0.04196604763978866</v>
-      </c>
-      <c r="J25">
-        <v>0.04196604763978867</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>99.694255</v>
-      </c>
-      <c r="N25">
-        <v>299.082765</v>
-      </c>
-      <c r="O25">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="P25">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="Q25">
-        <v>63.40886932183334</v>
-      </c>
-      <c r="R25">
-        <v>570.6798238965</v>
-      </c>
-      <c r="S25">
-        <v>0.009782945191576289</v>
-      </c>
-      <c r="T25">
-        <v>0.009782945191576293</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.064516</v>
+      </c>
+      <c r="I27">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J27">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>2.107067333333334</v>
+      </c>
+      <c r="N27">
+        <v>6.321202</v>
+      </c>
+      <c r="O27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="P27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="Q27">
+        <v>0.747668963136889</v>
+      </c>
+      <c r="R27">
+        <v>6.729020668232001</v>
+      </c>
+      <c r="S27">
+        <v>7.191619625261141E-05</v>
+      </c>
+      <c r="T27">
+        <v>7.191619625261141E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.064516</v>
+      </c>
+      <c r="I28">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J28">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>219.1540376666667</v>
+      </c>
+      <c r="N28">
+        <v>657.462113</v>
+      </c>
+      <c r="O28">
+        <v>0.3852203158260555</v>
+      </c>
+      <c r="P28">
+        <v>0.3852203158260556</v>
+      </c>
+      <c r="Q28">
+        <v>77.76432652025646</v>
+      </c>
+      <c r="R28">
+        <v>699.8789386823081</v>
+      </c>
+      <c r="S28">
+        <v>0.007479934092782444</v>
+      </c>
+      <c r="T28">
+        <v>0.007479934092782446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.064516</v>
+      </c>
+      <c r="I29">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J29">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.04495333333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.13486</v>
+      </c>
+      <c r="O29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="P29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="Q29">
+        <v>0.01595118086222223</v>
+      </c>
+      <c r="R29">
+        <v>0.14356062776</v>
+      </c>
+      <c r="S29">
+        <v>1.534299683292383E-06</v>
+      </c>
+      <c r="T29">
+        <v>1.534299683292383E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.064516</v>
+      </c>
+      <c r="I30">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J30">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N30">
+        <v>656.961365</v>
+      </c>
+      <c r="O30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q30">
+        <v>77.70509826937112</v>
+      </c>
+      <c r="R30">
+        <v>699.3458844243401</v>
+      </c>
+      <c r="S30">
+        <v>0.007474237092205481</v>
+      </c>
+      <c r="T30">
+        <v>0.007474237092205481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.064516</v>
+      </c>
+      <c r="I31">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J31">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>128.612531</v>
+      </c>
+      <c r="N31">
+        <v>385.837593</v>
+      </c>
+      <c r="O31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q31">
+        <v>45.63669901666534</v>
+      </c>
+      <c r="R31">
+        <v>410.730291149988</v>
+      </c>
+      <c r="S31">
+        <v>0.004389667037981574</v>
+      </c>
+      <c r="T31">
+        <v>0.004389667037981574</v>
       </c>
     </row>
   </sheetData>
